--- a/data/long_bre/P23_4-Edad-long_bre.xlsx
+++ b/data/long_bre/P23_4-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,88</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>9,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-38,51%</t>
+          <t>3,54%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-44,91%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>199,4%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 12,41</t>
+          <t>-10,03; 11,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 2,77</t>
+          <t>-17,05; 2,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,72; 108,41</t>
+          <t>-0,85; 17,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-76,85; 49,53</t>
+          <t>-40,58; 91,19</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-78,94; 35,02</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-31,3; —</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>-12,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,0%</t>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-15,76%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 12,29</t>
+          <t>-8,97; 18,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 7,87</t>
+          <t>-10,77; 11,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 18,13</t>
+          <t>-27,55; 4,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 10,03</t>
+          <t>-11,67; 30,62</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-12,4; 15,41</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-32,22; 5,96</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-24,93%</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>163,87%</t>
+          <t>-36,62%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>146,29%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16,41%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 5,48</t>
+          <t>-17,83; 3,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 14,48</t>
+          <t>0,09; 13,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-75,16; 112,58</t>
+          <t>-11,28; 16,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 739,52</t>
+          <t>-84,15; 80,82</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-13,64; 549,97</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-43,12; 145,73</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>78,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 15,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 13,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-58,3; 125,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 233,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-11,59</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-16,34%</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>70,63%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>87,05%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 10,88</t>
+          <t>-18,54; 13,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 15,24</t>
+          <t>-0,85; 12,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-30,84; 16,88</t>
+          <t>-2,06; 13,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 24,82</t>
+          <t>-59,26; 104,12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; 246,9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-23,29; 333,91</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>-9,96</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>77,9%</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-34,35%</t>
+          <t>-14,15%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 16,49</t>
+          <t>-22,69; 8,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 3,78</t>
+          <t>-10,67; 19,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 285,2</t>
+          <t>-12,06; 21,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 35,52</t>
+          <t>-29,19; 13,38</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-13,82; 33,65</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-15,45; 37,69</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,73</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,37%</t>
+          <t>-8,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-42,97%</t>
+          <t>90,69%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-37,64%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-36,07%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 7,31</t>
+          <t>0,61; 16,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -0,43</t>
+          <t>-29,12; 2,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-37,42; 41,78</t>
+          <t>-26,63; 3,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-64,56; 0,5</t>
+          <t>-0,86; 302,71</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-74,84; 18,62</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-71,15; 26,88</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 21,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 9,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 45,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 15,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-9,61</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-41,41%</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>-3,93%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-40,52%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-17,53%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,69; -1,86</t>
+          <t>-8,56; 6,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 14,24</t>
+          <t>-12,57; -0,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-67,77; -8,07</t>
+          <t>-15,36; 4,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 117,51</t>
+          <t>-32,8; 43,19</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-62,59; 0,17</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-48,79; 26,29</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>10,32</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-0,77%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19,14%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 9,68</t>
+          <t>-1,37; 21,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 5,96</t>
+          <t>-9,65; 9,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 62,94</t>
+          <t>-0,07; 21,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-37,59; 34,12</t>
+          <t>-1,73; 46,15</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-13,31; 15,37</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 45,1</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>-9,49</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-9,84%</t>
+          <t>-6,51</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>-40,16%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>40,24%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-31,4%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 5,96</t>
+          <t>-23,25; -1,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 4,65</t>
+          <t>-2,66; 13,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-24,29; 10,69</t>
+          <t>-14,64; 0,84</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-20,78; 8,13</t>
+          <t>-66,75; -3,96</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-12,93; 111,1</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-55,47; 5,35</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1486,74 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 12,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 13,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 73,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 100,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-10,64</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-48,44%</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-8,35%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>17,34%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1566,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-19,17; -2,84</t>
+          <t>-6,66; 10,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 8,28</t>
+          <t>-11,21; 5,9</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-71,58; -14,07</t>
+          <t>-4,64; 11,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 61,97</t>
+          <t>-26,52; 65,26</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-39,27; 32,53</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-20,5; 80,18</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1599,37 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-7,67</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-10,96%</t>
+          <t>-8,07%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-8,1%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1642,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 18,02</t>
+          <t>-14,07; 5,43</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 2,14</t>
+          <t>-14,04; 4,38</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 30,45</t>
+          <t>-8,85; 13,63</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 3,18</t>
+          <t>-22,07; 10,33</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-21,42; 8,17</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-15,26; 30,24</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1675,37 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>54,23%</t>
+          <t>12,19%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>40,82%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-16,73%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +1718,70 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 11,64</t>
+          <t>-7,85; 10,59</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 14,16</t>
+          <t>-0,37; 13,61</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 110,92</t>
+          <t>-18,65; 5,27</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 136,62</t>
+          <t>-28,92; 63,37</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 104,17</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-47,83; 24,32</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-12,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-16,94%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-59,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +1794,74 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 7,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-20,48; -4,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-62,34; 52,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-79,68; -23,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>9,02</t>
+          <t>-10,75</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>13,94</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>11,26</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>-48,27%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>97,76%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1874,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 24,58</t>
+          <t>-19,05; -2,7</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 24,35</t>
+          <t>-7,22; 7,54</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 48,95</t>
+          <t>2,39; 20,66</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,97; 45,43</t>
+          <t>-70,25; -10,68</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-35,06; 56,9</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>12,92; 239,95</t>
         </is>
       </c>
     </row>
@@ -1548,27 +1907,37 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-31,12%</t>
+          <t>-9,22</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-10,05%</t>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-9,95%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-13,63%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +1950,70 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 3,83</t>
+          <t>-4,59; 17,86</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 12,26</t>
+          <t>-15,98; 2,59</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-61,57; 35,38</t>
+          <t>-21,91; 3,91</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-51,26; 87,58</t>
+          <t>-6,67; 30,69</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-22,02; 3,88</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-29,73; 6,52</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>-19,23%</t>
+          <t>25,96%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>51,09%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-9,78%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2026,32 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 3,08</t>
+          <t>-4,8; 11,86</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-6,29; -0,1</t>
+          <t>-0,12; 13,84</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 16,94</t>
+          <t>-12,58; 8,49</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-34,61; -0,56</t>
+          <t>-27,72; 113,09</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 143,08</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-47,03; 61,73</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2059,37 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2102,74 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 6,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 4,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 11,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 7,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>-12,74</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>-3,55%</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>-11,08%</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>-60,23%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>-22,53%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2182,590 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 2,98</t>
+          <t>-15,32; 9,1</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 7,34</t>
+          <t>-20,94; -4,69</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 20,96</t>
+          <t>-15,7; 7,12</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 54,72</t>
+          <t>-55,86; 66,23</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-77,34; -23,53</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-68,97; 97,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>8,77</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>14,95</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>6,09</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>14,43%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>8,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 23,47</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>3,59; 26,81</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-7,75; 20,12</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 45,42</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 52,32</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; 34,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>-6,52</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>-2,8</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>-34,57%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>-12,01%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-17,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-15,17; 2,54</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-11,44; 7,78</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-13,25; 8,03</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-63,58; 21,04</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-51,58; 54,89</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-60,21; 90,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-1,3</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-3,55</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-6,35%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-21,34%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>22,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-5,84; 2,78</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; -0,35</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 6,86</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-25,02; 16,04</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-36,47; -2,28</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 58,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 7,37</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 5,19</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 6,69</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 12,38</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 8,07</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-6,78; 11,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>-4,22</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>-7,01%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>19,42%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-19,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 2,62</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 6,46</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-9,56; 0,49</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-25,32; 17,9</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-9,22; 48,54</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-36,7; 3,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
